--- a/Variable_List.xlsx
+++ b/Variable_List.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="157">
   <si>
     <t xml:space="preserve">var_type</t>
   </si>
@@ -495,23 +495,22 @@
   </si>
   <si>
     <t xml:space="preserve">Ex: Excellent (100+ inches), Gd: Good (90-99 inches), TA: Typical (80-89 inches), Fa: Fair (70-79 inches), Po: Poor (&lt;70 inches), NA: No Basement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ex" "Gd" "TA" "Fa" "Po" "NA"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -529,7 +528,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,12 +545,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFB6C1"/>
         <bgColor rgb="FFFF99CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF87CEEB"/>
-        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -625,11 +618,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -680,7 +673,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF87CEEB"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFB6C1"/>
@@ -1939,10 +1932,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1950,7 +1943,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="25.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="25.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.74"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.91"/>
@@ -2183,173 +2176,169 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="5" t="n">
-        <v>5</v>
-      </c>
+      <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>86</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="7" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7" t="s">
-        <v>113</v>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="A18" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>157</v>
-      </c>
+      <c r="D19" s="8"/>
       <c r="E19" s="8" t="n">
         <v>4</v>
       </c>
@@ -2357,84 +2346,6 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2451,7 +2362,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
